--- a/output/fit_clients/fit_round_179.xlsx
+++ b/output/fit_clients/fit_round_179.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1538254226.460022</v>
+        <v>2325482047.037048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09506030893727936</v>
+        <v>0.1101747015427445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03167640329441048</v>
+        <v>0.03545359073002184</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>769127046.7306956</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2524923828.982838</v>
+        <v>2174614400.268847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1175483943409861</v>
+        <v>0.1456433719072501</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03968806564281869</v>
+        <v>0.04348792220393072</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1262462035.818047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4784322404.544966</v>
+        <v>4873143457.531305</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16444478812552</v>
+        <v>0.1465116057923245</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03690079594874614</v>
+        <v>0.03748968515018655</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2392161271.983583</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3072753894.244557</v>
+        <v>3009538604.30946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08929924944805694</v>
+        <v>0.1100293145771973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04309107049196083</v>
+        <v>0.04274329990520976</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1536377012.138547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2631095900.511473</v>
+        <v>2017526554.539203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1247465018507535</v>
+        <v>0.1214740121361043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.047468143471557</v>
+        <v>0.05597599714566619</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1315547911.522507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2276088665.410302</v>
+        <v>2060698804.174888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08906644703974054</v>
+        <v>0.08020676877003283</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04422646465416048</v>
+        <v>0.03883737004492885</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1138044367.229072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2982948458.085674</v>
+        <v>2873281260.275215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1968242784349412</v>
+        <v>0.1335249117376763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03107307921946167</v>
+        <v>0.03222982304066704</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1491474284.785347</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2313381559.914733</v>
+        <v>1443996053.777236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1914728433091236</v>
+        <v>0.1924089789227337</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02670224376503359</v>
+        <v>0.02845226975357933</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1156690763.06392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5363116700.931881</v>
+        <v>4245476189.478644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1793027100525745</v>
+        <v>0.1637529843141369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04144545395428185</v>
+        <v>0.03471786854402568</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2681558477.895889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3891452090.199238</v>
+        <v>2844617336.862231</v>
       </c>
       <c r="F11" t="n">
-        <v>0.129047758367952</v>
+        <v>0.1425929890015444</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04115119809070805</v>
+        <v>0.04344694260313748</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>74</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1945726050.187689</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2569484725.807526</v>
+        <v>2435230777.560204</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1517871775551417</v>
+        <v>0.146208037350485</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04278416361884695</v>
+        <v>0.05306715260748316</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>63</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1284742341.448599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3739614542.066958</v>
+        <v>5263417158.519737</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0916617994126218</v>
+        <v>0.09921573985416003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02500311371718776</v>
+        <v>0.02197760381134699</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1869807339.169502</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3180527319.13985</v>
+        <v>2916645695.374122</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862419639133895</v>
+        <v>0.13397417289397</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03496442314018568</v>
+        <v>0.0317420675066897</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1590263680.909094</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1564910523.670504</v>
+        <v>1298133160.227231</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07605363579470206</v>
+        <v>0.07270745214395474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03385543014304371</v>
+        <v>0.0334039369493779</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>782455362.0291696</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2479271764.274742</v>
+        <v>2428234899.342174</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071759972145142</v>
+        <v>0.1054148277897182</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04827965852782471</v>
+        <v>0.03560747457882277</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1239635914.775119</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3920023980.27579</v>
+        <v>3926159901.670398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1158519643959081</v>
+        <v>0.1672980346252537</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03213282521677729</v>
+        <v>0.03475568443426118</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1960012028.615974</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2746734323.424672</v>
+        <v>3916773666.857541</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1169698740704514</v>
+        <v>0.1767819643882266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02260522772305424</v>
+        <v>0.02781835696946313</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>59</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1373367210.241809</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1027204034.435142</v>
+        <v>1254177660.921555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1162965324298898</v>
+        <v>0.1372104367314484</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02730445390247481</v>
+        <v>0.01986880157708666</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>513602053.0520358</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1910960080.639647</v>
+        <v>2048711371.153911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1490621706577044</v>
+        <v>0.11417342342035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02115499262251255</v>
+        <v>0.03007698539193135</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>955480076.1300527</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2383663092.71754</v>
+        <v>1722866976.426845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07792986866423464</v>
+        <v>0.08484530706069901</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03973064819113234</v>
+        <v>0.02984571341348015</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1191831545.59744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2497735448.381547</v>
+        <v>2993390393.77604</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1431932291255384</v>
+        <v>0.1191519598268158</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04043116663907903</v>
+        <v>0.04759121470816938</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1248867815.776373</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1524776783.640038</v>
+        <v>1320454922.847739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1224991733585869</v>
+        <v>0.1133978041485476</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04103495520474528</v>
+        <v>0.04507107878252692</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>762388373.5578605</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3311108148.133396</v>
+        <v>3152206042.487605</v>
       </c>
       <c r="F24" t="n">
-        <v>0.130266794569355</v>
+        <v>0.1458673755422595</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0303152342572264</v>
+        <v>0.02750761230473384</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>52</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1655554088.37038</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1259565971.871378</v>
+        <v>1392228941.408568</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08758580134106579</v>
+        <v>0.1071495687868852</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02322641843305279</v>
+        <v>0.03083381588500719</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>629782990.1850328</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1290971897.572357</v>
+        <v>1400478795.190298</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1212264690879981</v>
+        <v>0.1074296045352452</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03762833192039988</v>
+        <v>0.03304540082608224</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>645485992.0464516</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4194708467.960199</v>
+        <v>4104084224.127789</v>
       </c>
       <c r="F27" t="n">
-        <v>0.128013431197574</v>
+        <v>0.1385990296268056</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02688918729167375</v>
+        <v>0.02595257667453098</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>42</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2097354234.418738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2785245789.141167</v>
+        <v>2863028965.463167</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1405511586933755</v>
+        <v>0.100289483726674</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03036600406581466</v>
+        <v>0.04895108880143428</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1392622887.115881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4820823698.615409</v>
+        <v>4382534305.191258</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09357348399418575</v>
+        <v>0.1050484050096133</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04349318867622152</v>
+        <v>0.04434288709386997</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>81</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2410411809.258527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1710827848.68015</v>
+        <v>1806102898.312504</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1116549712608611</v>
+        <v>0.1297972287999605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03457504977656362</v>
+        <v>0.03609629153712155</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>855413928.8253227</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1266821171.66905</v>
+        <v>1479146571.971071</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09624242064505764</v>
+        <v>0.1053973148361556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03935635632806059</v>
+        <v>0.04884820838385381</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>633410521.5474429</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1427906489.292318</v>
+        <v>1725923581.017004</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0929556615675155</v>
+        <v>0.1120247663424837</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03075671893435387</v>
+        <v>0.02986836065282215</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>713953298.0463549</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2062977949.468425</v>
+        <v>1976924082.45366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1555032521420976</v>
+        <v>0.1260208823530898</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04745042714575693</v>
+        <v>0.04626653722980352</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1031489050.1527</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1524702250.433007</v>
+        <v>1082505622.668658</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0905969369405715</v>
+        <v>0.08579858472600667</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02408536349891517</v>
+        <v>0.026870179986648</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>762351077.0333279</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1132958034.247067</v>
+        <v>869674759.7019609</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09932038534728178</v>
+        <v>0.1024802297666058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03816835921334446</v>
+        <v>0.0399065990988257</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>566479006.5291868</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2213560248.549259</v>
+        <v>2183758510.365129</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228668137457519</v>
+        <v>0.1376142719086162</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02773296980108422</v>
+        <v>0.02358289099171041</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1106780169.158537</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2188307381.851687</v>
+        <v>2384498030.4715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08704702208036787</v>
+        <v>0.07212253303962282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02598537412459888</v>
+        <v>0.04108589003075852</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1094153744.089269</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1660722928.687409</v>
+        <v>2097408584.550982</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1074176537825554</v>
+        <v>0.09213333265043831</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02917767788197308</v>
+        <v>0.03113473539362712</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>830361490.8692689</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1610802703.853708</v>
+        <v>1563309005.822783</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1495818905879675</v>
+        <v>0.1905827666849718</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03189288121563886</v>
+        <v>0.02227560883334871</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>805401405.5210842</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1455297416.74399</v>
+        <v>1393793378.707099</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1392602525046739</v>
+        <v>0.1625688338177459</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04057441553618946</v>
+        <v>0.05766593496618259</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>727648685.7129565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2144121152.318799</v>
+        <v>2335553944.310152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1057788947018093</v>
+        <v>0.1146791791077125</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03803044130895595</v>
+        <v>0.04278886598104816</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1072060636.249296</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3531211606.778157</v>
+        <v>3673258612.845232</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08191766510654734</v>
+        <v>0.08128628114475343</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03021305896143769</v>
+        <v>0.04507152435743211</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1765605800.382304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2199698776.154083</v>
+        <v>1855266906.488437</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1802936718424106</v>
+        <v>0.1940207928840284</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01778979712727046</v>
+        <v>0.02178566162546315</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>62</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1099849466.886846</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1475208460.53507</v>
+        <v>2081793550.299384</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030851537554319</v>
+        <v>0.07357428439328782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02234220367436518</v>
+        <v>0.03322506150966512</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>737604231.8596618</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2462022328.967241</v>
+        <v>1925859331.496631</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1777564336717324</v>
+        <v>0.1563624542119626</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03724442395690467</v>
+        <v>0.03663167011027891</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1231011201.861279</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5217594897.283883</v>
+        <v>4752618569.966</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1336860033844257</v>
+        <v>0.1449665987830142</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0477868289777006</v>
+        <v>0.03939968046652101</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2608797487.871519</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3295004213.055417</v>
+        <v>4694871973.58887</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947493347402025</v>
+        <v>0.1493269082960185</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05576569882695413</v>
+        <v>0.03796212924813705</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1647502065.696355</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3030882444.824287</v>
+        <v>4158004317.160984</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07108147436623685</v>
+        <v>0.06978263313277336</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02480232550668434</v>
+        <v>0.02385749844024165</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>61</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1515441313.064301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1556767924.586823</v>
+        <v>1827831342.285193</v>
       </c>
       <c r="F49" t="n">
-        <v>0.127956393767584</v>
+        <v>0.1372543824829492</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04108877277478885</v>
+        <v>0.03217020568897348</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>778383985.4513865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2631181201.253085</v>
+        <v>2897593870.570692</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1699034026850648</v>
+        <v>0.1441809651235892</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03900035184266282</v>
+        <v>0.04142231512408844</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>61</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1315590686.662742</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1468953182.932744</v>
+        <v>1332476392.562854</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1695570495688476</v>
+        <v>0.1451575981507293</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05253575854492287</v>
+        <v>0.05291128465491897</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>734476599.4016687</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4536456068.303181</v>
+        <v>4839598564.711969</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1197786392989248</v>
+        <v>0.1047400226728388</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04698959156402163</v>
+        <v>0.04049135049485799</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2268228059.028036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3302869731.615232</v>
+        <v>3769261380.94328</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1598544157887586</v>
+        <v>0.2039154693817987</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02508555162113966</v>
+        <v>0.03216890245709483</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1651434877.323507</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3420807013.449963</v>
+        <v>4401184181.920725</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1626581156564957</v>
+        <v>0.1381716461283456</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03331827277790766</v>
+        <v>0.04645233515782138</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1710403525.270486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3804118959.010438</v>
+        <v>3302282447.204424</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1579981310488031</v>
+        <v>0.1672402173426384</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03103528871468394</v>
+        <v>0.03150592932368267</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>49</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1902059445.765927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1210993975.904098</v>
+        <v>1308586851.338001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.124719733563432</v>
+        <v>0.1499968045562037</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04263419283474364</v>
+        <v>0.0535589807445316</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>605497073.0127081</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4415958928.788667</v>
+        <v>3665740834.069627</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1430073605572482</v>
+        <v>0.1508676721197883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01846857973208784</v>
+        <v>0.02310358468848258</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2207979587.666493</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1821096747.57771</v>
+        <v>1376416275.031197</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1822109819635122</v>
+        <v>0.1870529527560902</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03280474696819857</v>
+        <v>0.03365971682360299</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>910548375.5931389</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4637453562.93478</v>
+        <v>4890381093.331358</v>
       </c>
       <c r="F59" t="n">
-        <v>0.107531602517806</v>
+        <v>0.110160666607907</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0393181257249176</v>
+        <v>0.03577376879547783</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2318726726.655166</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3203827375.685064</v>
+        <v>3679723410.203508</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1512550432038</v>
+        <v>0.1477487434746629</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02936729924629276</v>
+        <v>0.02175218541554111</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>60</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1601913779.54123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3166247267.606508</v>
+        <v>2377135829.010003</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1452013706879187</v>
+        <v>0.1135675754311461</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02588905311721599</v>
+        <v>0.0315854574537239</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>62</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1583123598.568396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1560641309.30108</v>
+        <v>1542177470.027563</v>
       </c>
       <c r="F62" t="n">
-        <v>0.143395960000144</v>
+        <v>0.1574702195514239</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03784124331042864</v>
+        <v>0.03393997274692898</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>780320646.7421142</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4597638067.110635</v>
+        <v>3519760218.509081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07088258029005304</v>
+        <v>0.07782093208568838</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03465237474731135</v>
+        <v>0.02986967774579694</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>51</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2298819069.259865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4790613558.224293</v>
+        <v>3811894209.751542</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1661901901023637</v>
+        <v>0.138625345487984</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02930504918571863</v>
+        <v>0.02924534052447714</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2395306870.556005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3738849829.087719</v>
+        <v>4822331750.156515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1132985581838586</v>
+        <v>0.1251088387821935</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02242123904676428</v>
+        <v>0.02720532657266338</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>64</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1869424948.656064</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3734983468.841339</v>
+        <v>3618449675.622717</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1416475344896924</v>
+        <v>0.1429574113649794</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04516071534526227</v>
+        <v>0.03877502820288985</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1867491693.758402</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2177219602.602625</v>
+        <v>3253647169.790597</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06378272270830433</v>
+        <v>0.0812690274855961</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03530829612902563</v>
+        <v>0.03416460669653465</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1088609889.159126</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5484868405.16672</v>
+        <v>5695178409.464889</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1202276884591917</v>
+        <v>0.09901996913187211</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05130840879018694</v>
+        <v>0.04431699110103575</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2742434288.320671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1636890133.001803</v>
+        <v>2343287623.379739</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1450574684933852</v>
+        <v>0.1523032241344989</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04337747977481544</v>
+        <v>0.05422970810706908</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>818445024.4703131</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3279561135.55688</v>
+        <v>2422534429.688907</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08630077582256609</v>
+        <v>0.08261111585670762</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04294539312716725</v>
+        <v>0.03560162345499821</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1639780562.896835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3794487977.730383</v>
+        <v>3766191910.830336</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664929989117979</v>
+        <v>0.1701425065763879</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03363509792279824</v>
+        <v>0.02583848276664059</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>65</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1897244004.523354</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1513278650.866132</v>
+        <v>1900651700.866566</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09174331513989892</v>
+        <v>0.08116210417675082</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0478335777594348</v>
+        <v>0.05156479486182388</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>756639350.2187707</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3417279013.158979</v>
+        <v>2499888968.006851</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08772879104374597</v>
+        <v>0.09495048363665629</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04367820341609009</v>
+        <v>0.04325163979442147</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>69</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1708639464.322368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3294799427.883275</v>
+        <v>2647296900.434094</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1833907917400712</v>
+        <v>0.1453843930482716</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02518782877220795</v>
+        <v>0.02153938357827957</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1647399753.795574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1728285328.01962</v>
+        <v>2494711442.793663</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1165828920555916</v>
+        <v>0.1039782752921322</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03113817548535125</v>
+        <v>0.03552218024520592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>864142653.6421117</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4853246564.760207</v>
+        <v>5160930375.327064</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1182453787772627</v>
+        <v>0.07857944756478576</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02096895440402718</v>
+        <v>0.03422176927334646</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2426623302.848285</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1863541096.514817</v>
+        <v>1947076296.773895</v>
       </c>
       <c r="F77" t="n">
-        <v>0.161238511149572</v>
+        <v>0.1677538671341456</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02858107812466179</v>
+        <v>0.0307933967607147</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>931770589.5672053</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4495129168.805978</v>
+        <v>2935287904.353064</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1178150343636634</v>
+        <v>0.1038403220200848</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04987217071197333</v>
+        <v>0.05428460860033431</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>62</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2247564514.64676</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1511592626.042047</v>
+        <v>1812061585.170687</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1441965715000144</v>
+        <v>0.166196453282956</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03234352162722762</v>
+        <v>0.03964152737851934</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>755796349.248134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4141225400.724653</v>
+        <v>5345228098.159605</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06907901211349481</v>
+        <v>0.1100527598064548</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02691254185673872</v>
+        <v>0.03397294863406308</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2070612706.825243</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3299754071.810622</v>
+        <v>4053904090.26631</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08635415945651177</v>
+        <v>0.08811772854638833</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0277646582215324</v>
+        <v>0.03134747974916817</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1649876973.099436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3756362854.227253</v>
+        <v>5369847840.407632</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1368957939354518</v>
+        <v>0.1818074689323277</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01887920809336704</v>
+        <v>0.02253358462211087</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1878181480.436298</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1572035868.310604</v>
+        <v>2166963772.417874</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09735544473021623</v>
+        <v>0.1463214358080443</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03741478998879603</v>
+        <v>0.03660188637653947</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>786017866.1241246</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1615603726.433642</v>
+        <v>1674081042.924386</v>
       </c>
       <c r="F84" t="n">
-        <v>0.119143381031535</v>
+        <v>0.09096187120174333</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03474137974631939</v>
+        <v>0.04251886079156569</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>807801924.4829437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3595164112.313054</v>
+        <v>3610064921.164528</v>
       </c>
       <c r="F85" t="n">
-        <v>0.129691822033568</v>
+        <v>0.1240419432934672</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03976595475496039</v>
+        <v>0.05404836538476717</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>67</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1797582182.00132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2214038171.416716</v>
+        <v>2551043263.488969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1488839940096318</v>
+        <v>0.1259913567882601</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02425903577762395</v>
+        <v>0.02332961509688562</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1107019143.068319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>981135271.77907</v>
+        <v>1219110055.661874</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1395838445741532</v>
+        <v>0.1408742777743338</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03565460036060245</v>
+        <v>0.03340784626349105</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>490567635.3643633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2382470065.44023</v>
+        <v>2455889570.581431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1697584709311198</v>
+        <v>0.1246130552772826</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03696689010923074</v>
+        <v>0.03662012984034476</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>71</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1191235002.111224</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2623168024.466823</v>
+        <v>3138409061.380804</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1188824702461298</v>
+        <v>0.1434075736029879</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03597904102568365</v>
+        <v>0.03417000285588745</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1311584077.931539</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2098129356.704327</v>
+        <v>2146493965.19417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196478130210474</v>
+        <v>0.1339657267946971</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04371506386970257</v>
+        <v>0.05432901766372082</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1049064766.563552</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1279661301.109618</v>
+        <v>2099020359.436614</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1468029089516232</v>
+        <v>0.1811459585100851</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04647354156084102</v>
+        <v>0.03885422521140675</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>639830718.8163563</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2009767943.442574</v>
+        <v>1914606324.711442</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0696258802853278</v>
+        <v>0.1056698724361845</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02900106021659203</v>
+        <v>0.03454296276702835</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>44</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1004883918.595136</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3823877475.971629</v>
+        <v>4862392901.726764</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1302771077485536</v>
+        <v>0.1015555306458342</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03547868806815409</v>
+        <v>0.03970179101542259</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1911938749.966066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1833315031.38701</v>
+        <v>1657096502.60048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1410480109147452</v>
+        <v>0.114349554380157</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02783117664521504</v>
+        <v>0.03679172937148157</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>916657492.3295631</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2074784412.395593</v>
+        <v>2689624049.869014</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1042066980684557</v>
+        <v>0.127728856587268</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04164010457414139</v>
+        <v>0.0442044808623938</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1037392273.184276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1645783108.871832</v>
+        <v>1577297986.308368</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1286872161545136</v>
+        <v>0.1159190721564456</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04127844496510382</v>
+        <v>0.03875024813571908</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>822891579.2001966</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3789651665.271931</v>
+        <v>4342542160.58768</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1702903052159788</v>
+        <v>0.1628423761458448</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0196839458071951</v>
+        <v>0.02676864656707465</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1894825872.068194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3162094260.208947</v>
+        <v>2949867267.415487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1268974543058987</v>
+        <v>0.1005452830116291</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02761189242864966</v>
+        <v>0.03092814477106074</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>47</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1581047125.753229</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2211905773.230235</v>
+        <v>2300855861.055577</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09928954829241322</v>
+        <v>0.122998460641824</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02588089350527916</v>
+        <v>0.03221059313630707</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1105952815.408365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4768035394.261101</v>
+        <v>3994544165.348248</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1763880599208633</v>
+        <v>0.1515819044315095</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02469236366532507</v>
+        <v>0.02099906804338191</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2384017829.087842</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2448326206.085911</v>
+        <v>3229273724.976523</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1497490138399266</v>
+        <v>0.1750297498802052</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0563887698213141</v>
+        <v>0.03943148193718443</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>73</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1224163119.154467</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_179.xlsx
+++ b/output/fit_clients/fit_round_179.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2325482047.037048</v>
+        <v>1753186200.141097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1101747015427445</v>
+        <v>0.09986721607205441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03545359073002184</v>
+        <v>0.04322754482084695</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2174614400.268847</v>
+        <v>2008332122.601926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1456433719072501</v>
+        <v>0.1836299498859322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04348792220393072</v>
+        <v>0.03546336199091728</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4873143457.531305</v>
+        <v>4790854956.713347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1465116057923245</v>
+        <v>0.165476356215032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03748968515018655</v>
+        <v>0.03158638535869636</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3009538604.30946</v>
+        <v>3055968115.509984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100293145771973</v>
+        <v>0.07268473099313089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04274329990520976</v>
+        <v>0.04644125011818123</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2017526554.539203</v>
+        <v>2237708169.187298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1214740121361043</v>
+        <v>0.1435730144847374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05597599714566619</v>
+        <v>0.03672054369364191</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2060698804.174888</v>
+        <v>1952621228.776737</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08020676877003283</v>
+        <v>0.06203157364169758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03883737004492885</v>
+        <v>0.03751455125315564</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2873281260.275215</v>
+        <v>2763447136.044458</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1335249117376763</v>
+        <v>0.1905507958229727</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03222982304066704</v>
+        <v>0.02630894173730088</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1443996053.777236</v>
+        <v>1841473885.586546</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1924089789227337</v>
+        <v>0.1558370581786707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02845226975357933</v>
+        <v>0.02935105031937561</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4245476189.478644</v>
+        <v>5409036648.658613</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1637529843141369</v>
+        <v>0.1424879901912398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03471786854402568</v>
+        <v>0.0429238413520115</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2844617336.862231</v>
+        <v>2617927243.412993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1425929890015444</v>
+        <v>0.1230755744102506</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04344694260313748</v>
+        <v>0.0485868466982144</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2435230777.560204</v>
+        <v>2287642637.0376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.146208037350485</v>
+        <v>0.1675502891841719</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05306715260748316</v>
+        <v>0.05030953888194243</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5263417158.519737</v>
+        <v>4121518032.911415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09921573985416003</v>
+        <v>0.09329219463435535</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02197760381134699</v>
+        <v>0.02677375126231101</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2916645695.374122</v>
+        <v>2919515876.36408</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13397417289397</v>
+        <v>0.1631341296062732</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0317420675066897</v>
+        <v>0.03375578692558009</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1298133160.227231</v>
+        <v>1820951609.754228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07270745214395474</v>
+        <v>0.1088662569423728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0334039369493779</v>
+        <v>0.03097023502290325</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2428234899.342174</v>
+        <v>2743997898.355808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054148277897182</v>
+        <v>0.08776912391749632</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03560747457882277</v>
+        <v>0.03576820070769662</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3926159901.670398</v>
+        <v>4660007948.748567</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1672980346252537</v>
+        <v>0.1414926866244954</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03475568443426118</v>
+        <v>0.04446750857526424</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3916773666.857541</v>
+        <v>3085530545.553609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1767819643882266</v>
+        <v>0.1118132099409043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02781835696946313</v>
+        <v>0.02397047027399274</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1254177660.921555</v>
+        <v>943229884.3163725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1372104367314484</v>
+        <v>0.1302908923391247</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01986880157708666</v>
+        <v>0.01945155381987415</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2048711371.153911</v>
+        <v>1694710827.917621</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11417342342035</v>
+        <v>0.1329197745016898</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03007698539193135</v>
+        <v>0.02579968244750632</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1722866976.426845</v>
+        <v>2702629098.718969</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08484530706069901</v>
+        <v>0.09170779748702612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02984571341348015</v>
+        <v>0.03621793831643685</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2993390393.77604</v>
+        <v>2455996016.198598</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1191519598268158</v>
+        <v>0.1262419947698857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04759121470816938</v>
+        <v>0.04436920176427473</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1320454922.847739</v>
+        <v>1111980111.208542</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1133978041485476</v>
+        <v>0.1256492334365728</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04507107878252692</v>
+        <v>0.05396738161574564</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3152206042.487605</v>
+        <v>2608128657.100044</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1458673755422595</v>
+        <v>0.1196383549869813</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02750761230473384</v>
+        <v>0.02814252546017</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1392228941.408568</v>
+        <v>1460103527.251482</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1071495687868852</v>
+        <v>0.1079519157314046</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03083381588500719</v>
+        <v>0.0269315488194192</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1400478795.190298</v>
+        <v>1071521801.387051</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074296045352452</v>
+        <v>0.09574258176966363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03304540082608224</v>
+        <v>0.03769019516105963</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4104084224.127789</v>
+        <v>4437215651.104996</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1385990296268056</v>
+        <v>0.1191043035942253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02595257667453098</v>
+        <v>0.02547566195941956</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2863028965.463167</v>
+        <v>3019311599.285043</v>
       </c>
       <c r="F28" t="n">
-        <v>0.100289483726674</v>
+        <v>0.0991857149178524</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04895108880143428</v>
+        <v>0.03986027911711321</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4382534305.191258</v>
+        <v>3872241632.084318</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1050484050096133</v>
+        <v>0.1202875783182243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04434288709386997</v>
+        <v>0.02842746635323021</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1806102898.312504</v>
+        <v>2370549905.808249</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1297972287999605</v>
+        <v>0.115066223017977</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03609629153712155</v>
+        <v>0.03579558515654991</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479146571.971071</v>
+        <v>1124327763.940898</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053973148361556</v>
+        <v>0.08180814801605836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04884820838385381</v>
+        <v>0.04845869969974993</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1725923581.017004</v>
+        <v>1785878627.843366</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120247663424837</v>
+        <v>0.07312748825532168</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02986836065282215</v>
+        <v>0.03420366715548093</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1976924082.45366</v>
+        <v>2844959504.681013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1260208823530898</v>
+        <v>0.138642011012639</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04626653722980352</v>
+        <v>0.0536392321304259</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1082505622.668658</v>
+        <v>1167144481.602266</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08579858472600667</v>
+        <v>0.08733379980385775</v>
       </c>
       <c r="G34" t="n">
-        <v>0.026870179986648</v>
+        <v>0.02565843130800585</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>869674759.7019609</v>
+        <v>1025823384.121411</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1024802297666058</v>
+        <v>0.0884133594945524</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0399065990988257</v>
+        <v>0.03449921322670298</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2183758510.365129</v>
+        <v>3060314561.458714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1376142719086162</v>
+        <v>0.1502036241469287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02358289099171041</v>
+        <v>0.02687610401469379</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2384498030.4715</v>
+        <v>2461018457.914154</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07212253303962282</v>
+        <v>0.09774860975090986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04108589003075852</v>
+        <v>0.04077364782978903</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2097408584.550982</v>
+        <v>1798594344.226218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09213333265043831</v>
+        <v>0.1145375381167089</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03113473539362712</v>
+        <v>0.0267837131387353</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1563309005.822783</v>
+        <v>1797788606.561797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1905827666849718</v>
+        <v>0.187120947773241</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02227560883334871</v>
+        <v>0.02032164675753926</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1393793378.707099</v>
+        <v>1440579696.571149</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625688338177459</v>
+        <v>0.1045659138414277</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05766593496618259</v>
+        <v>0.05611611715735206</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2335553944.310152</v>
+        <v>1957358685.820819</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1146791791077125</v>
+        <v>0.114248329017306</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04278886598104816</v>
+        <v>0.03331572274826964</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3673258612.845232</v>
+        <v>3886668061.480446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08128628114475343</v>
+        <v>0.1171050088301571</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04507152435743211</v>
+        <v>0.04254553624333739</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1855266906.488437</v>
+        <v>2907358327.099275</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1940207928840284</v>
+        <v>0.1391483765312922</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02178566162546315</v>
+        <v>0.0183938771165361</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2081793550.299384</v>
+        <v>2200490158.882265</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07357428439328782</v>
+        <v>0.09358204900975205</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03322506150966512</v>
+        <v>0.02915297503342738</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1925859331.496631</v>
+        <v>2504355423.717892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1563624542119626</v>
+        <v>0.1308747618115245</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03663167011027891</v>
+        <v>0.03596579957723008</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4752618569.966</v>
+        <v>3447761599.904724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1449665987830142</v>
+        <v>0.1740101173881329</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03939968046652101</v>
+        <v>0.03801005283941125</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4694871973.58887</v>
+        <v>3997224581.394065</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1493269082960185</v>
+        <v>0.1707720895703333</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03796212924813705</v>
+        <v>0.05096261888298229</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4158004317.160984</v>
+        <v>4320974210.031198</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06978263313277336</v>
+        <v>0.1021304454493434</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02385749844024165</v>
+        <v>0.0266725386822098</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1827831342.285193</v>
+        <v>1725199659.106204</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1372543824829492</v>
+        <v>0.1876768757756963</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03217020568897348</v>
+        <v>0.03308988832198945</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2897593870.570692</v>
+        <v>2564007811.823312</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1441809651235892</v>
+        <v>0.1201529303691957</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04142231512408844</v>
+        <v>0.05093075933377098</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1332476392.562854</v>
+        <v>1244303448.141056</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1451575981507293</v>
+        <v>0.1900974124165863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05291128465491897</v>
+        <v>0.04685201214806438</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4839598564.711969</v>
+        <v>3465408859.802471</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1047400226728388</v>
+        <v>0.1190397756247309</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04049135049485799</v>
+        <v>0.04079219879152659</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3769261380.94328</v>
+        <v>3146253323.68608</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2039154693817987</v>
+        <v>0.1784527123732629</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03216890245709483</v>
+        <v>0.02824548146366384</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4401184181.920725</v>
+        <v>4484186316.879372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1381716461283456</v>
+        <v>0.169625775775931</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04645233515782138</v>
+        <v>0.04702952938816243</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3302282447.204424</v>
+        <v>4306622351.836917</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1672402173426384</v>
+        <v>0.2043592435083701</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03150592932368267</v>
+        <v>0.02518328440355524</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1308586851.338001</v>
+        <v>1500708631.206582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1499968045562037</v>
+        <v>0.1012584346640771</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0535589807445316</v>
+        <v>0.03654338796309551</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3665740834.069627</v>
+        <v>3892696741.830652</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1508676721197883</v>
+        <v>0.1178412557557988</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02310358468848258</v>
+        <v>0.02193391059651812</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1376416275.031197</v>
+        <v>1352028292.676784</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1870529527560902</v>
+        <v>0.160789962355109</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03365971682360299</v>
+        <v>0.02395432276086326</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4890381093.331358</v>
+        <v>4441448686.038059</v>
       </c>
       <c r="F59" t="n">
-        <v>0.110160666607907</v>
+        <v>0.1231204165823213</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03577376879547783</v>
+        <v>0.03513615789043401</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3679723410.203508</v>
+        <v>3190865890.534348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1477487434746629</v>
+        <v>0.1381008847057811</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02175218541554111</v>
+        <v>0.03317466977143206</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2377135829.010003</v>
+        <v>2073733480.919651</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1135675754311461</v>
+        <v>0.1754010255782572</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0315854574537239</v>
+        <v>0.0203484895651647</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1542177470.027563</v>
+        <v>1873239965.815758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1574702195514239</v>
+        <v>0.1850541169767063</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03393997274692898</v>
+        <v>0.03923076136013547</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3519760218.509081</v>
+        <v>4422587077.537767</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07782093208568838</v>
+        <v>0.1032606132368039</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02986967774579694</v>
+        <v>0.03621498757157427</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3811894209.751542</v>
+        <v>3909472500.352931</v>
       </c>
       <c r="F64" t="n">
-        <v>0.138625345487984</v>
+        <v>0.143282754778957</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02924534052447714</v>
+        <v>0.02211463518344101</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4822331750.156515</v>
+        <v>5327009775.821359</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1251088387821935</v>
+        <v>0.1667124873313017</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02720532657266338</v>
+        <v>0.02793782614650495</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3618449675.622717</v>
+        <v>4378182413.17613</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1429574113649794</v>
+        <v>0.1486569984238897</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03877502820288985</v>
+        <v>0.04677824517664776</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3253647169.790597</v>
+        <v>2432633848.623011</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0812690274855961</v>
+        <v>0.09944331303693234</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03416460669653465</v>
+        <v>0.03544052231932636</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5695178409.464889</v>
+        <v>3763137746.620091</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09901996913187211</v>
+        <v>0.1281008636852775</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04431699110103575</v>
+        <v>0.04790151858690794</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2343287623.379739</v>
+        <v>1778105618.648333</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1523032241344989</v>
+        <v>0.1775507505161867</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05422970810706908</v>
+        <v>0.03728297778871948</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2422534429.688907</v>
+        <v>3301717874.571252</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08261111585670762</v>
+        <v>0.09702539478728057</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03560162345499821</v>
+        <v>0.03453566954592511</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3766191910.830336</v>
+        <v>4608240711.571153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1701425065763879</v>
+        <v>0.1853953516202908</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02583848276664059</v>
+        <v>0.02412337485812884</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1900651700.866566</v>
+        <v>2035306418.342691</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08116210417675082</v>
+        <v>0.0920129650942282</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05156479486182388</v>
+        <v>0.03488136763605336</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2499888968.006851</v>
+        <v>2241313132.49663</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09495048363665629</v>
+        <v>0.09749537852221229</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04325163979442147</v>
+        <v>0.03264973348868938</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2647296900.434094</v>
+        <v>3828551383.489519</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1453843930482716</v>
+        <v>0.1479357006814443</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02153938357827957</v>
+        <v>0.02662351546361248</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2494711442.793663</v>
+        <v>1758638932.694876</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1039782752921322</v>
+        <v>0.1279357509181694</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03552218024520592</v>
+        <v>0.03001931203285367</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5160930375.327064</v>
+        <v>5136251471.13407</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07857944756478576</v>
+        <v>0.1028422927988397</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03422176927334646</v>
+        <v>0.0278416089409686</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1947076296.773895</v>
+        <v>2176363102.544097</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1677538671341456</v>
+        <v>0.1615725175990818</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0307933967607147</v>
+        <v>0.02876810917209002</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2935287904.353064</v>
+        <v>3634428211.846796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038403220200848</v>
+        <v>0.122165439517023</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05428460860033431</v>
+        <v>0.0485321250720932</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1812061585.170687</v>
+        <v>1712754477.945458</v>
       </c>
       <c r="F79" t="n">
-        <v>0.166196453282956</v>
+        <v>0.1164468474469827</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03964152737851934</v>
+        <v>0.02460612186298964</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5345228098.159605</v>
+        <v>5340023660.524536</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1100527598064548</v>
+        <v>0.07945001414652107</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03397294863406308</v>
+        <v>0.03645535548906285</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4053904090.26631</v>
+        <v>3986196586.332289</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08811772854638833</v>
+        <v>0.08978402713872709</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03134747974916817</v>
+        <v>0.03010092215150213</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5369847840.407632</v>
+        <v>3568828535.137351</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818074689323277</v>
+        <v>0.2166992338191855</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02253358462211087</v>
+        <v>0.01905535629038655</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2166963772.417874</v>
+        <v>1940024350.52482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1463214358080443</v>
+        <v>0.1341686580120554</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03660188637653947</v>
+        <v>0.02976567059917401</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1674081042.924386</v>
+        <v>2507035137.004361</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09096187120174333</v>
+        <v>0.08021785417829633</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04251886079156569</v>
+        <v>0.03361072527378271</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3610064921.164528</v>
+        <v>2596082347.690105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1240419432934672</v>
+        <v>0.1525651071222401</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05404836538476717</v>
+        <v>0.03699078082759621</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2551043263.488969</v>
+        <v>2076420197.175611</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1259913567882601</v>
+        <v>0.1250409005686618</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02332961509688562</v>
+        <v>0.01689532605331234</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1219110055.661874</v>
+        <v>1149024204.502551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1408742777743338</v>
+        <v>0.1381142838625267</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03340784626349105</v>
+        <v>0.03064072190639676</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2455889570.581431</v>
+        <v>2851544773.817647</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1246130552772826</v>
+        <v>0.1421720154060386</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03662012984034476</v>
+        <v>0.03650064176262208</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3138409061.380804</v>
+        <v>3311837637.325679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1434075736029879</v>
+        <v>0.1160214261043687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03417000285588745</v>
+        <v>0.02728601556750844</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2146493965.19417</v>
+        <v>2105236482.982895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1339657267946971</v>
+        <v>0.09638247733111674</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05432901766372082</v>
+        <v>0.04129916460054791</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2099020359.436614</v>
+        <v>1430392389.242392</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1811459585100851</v>
+        <v>0.1567133626583379</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03885422521140675</v>
+        <v>0.05010469704589715</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1914606324.711442</v>
+        <v>2148991743.847592</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1056698724361845</v>
+        <v>0.09650085415339343</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03454296276702835</v>
+        <v>0.03147408071432577</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4862392901.726764</v>
+        <v>3888231937.691461</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1015555306458342</v>
+        <v>0.09584505760775713</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03970179101542259</v>
+        <v>0.04850896095741032</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1657096502.60048</v>
+        <v>1719778330.642901</v>
       </c>
       <c r="F94" t="n">
-        <v>0.114349554380157</v>
+        <v>0.1513597451152262</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03679172937148157</v>
+        <v>0.02692018881703522</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2689624049.869014</v>
+        <v>3065586870.664771</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127728856587268</v>
+        <v>0.1132683058266914</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0442044808623938</v>
+        <v>0.04858787530051714</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1577297986.308368</v>
+        <v>1676444890.105672</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1159190721564456</v>
+        <v>0.1110302809813675</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03875024813571908</v>
+        <v>0.03228357527932214</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4342542160.58768</v>
+        <v>3391164186.380138</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1628423761458448</v>
+        <v>0.1289083561188547</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02676864656707465</v>
+        <v>0.02838068290129093</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2949867267.415487</v>
+        <v>3316249944.221297</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1005452830116291</v>
+        <v>0.09655354529718287</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03092814477106074</v>
+        <v>0.02103681801371065</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2300855861.055577</v>
+        <v>2713629446.732934</v>
       </c>
       <c r="F99" t="n">
-        <v>0.122998460641824</v>
+        <v>0.1270932974748508</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03221059313630707</v>
+        <v>0.02213978349416034</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3994544165.348248</v>
+        <v>3695150170.105176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1515819044315095</v>
+        <v>0.1303511412761828</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02099906804338191</v>
+        <v>0.02115797651161542</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3229273724.976523</v>
+        <v>3044985535.941477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1750297498802052</v>
+        <v>0.1489273916458615</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03943148193718443</v>
+        <v>0.03711559667310432</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_179.xlsx
+++ b/output/fit_clients/fit_round_179.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1753186200.141097</v>
+        <v>2246351301.99275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09986721607205441</v>
+        <v>0.08266529857380762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04322754482084695</v>
+        <v>0.03323386933275228</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2008332122.601926</v>
+        <v>2009858730.904571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1836299498859322</v>
+        <v>0.117361443547253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03546336199091728</v>
+        <v>0.03186725040355644</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4790854956.713347</v>
+        <v>3605281244.487099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.165476356215032</v>
+        <v>0.102093088422956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03158638535869636</v>
+        <v>0.02536137904545481</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>179</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3055968115.509984</v>
+        <v>2941795763.74069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07268473099313089</v>
+        <v>0.1105435706570054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04644125011818123</v>
+        <v>0.04649966292285337</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>178</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.56316125926045</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2237708169.187298</v>
+        <v>2057560936.255728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1435730144847374</v>
+        <v>0.09863337523797781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03672054369364191</v>
+        <v>0.03562829505413257</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1952621228.776737</v>
+        <v>2722442173.99554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06203157364169758</v>
+        <v>0.06189895005792975</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03751455125315564</v>
+        <v>0.03748921799697671</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2763447136.044458</v>
+        <v>3103026742.171323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1905507958229727</v>
+        <v>0.2037406745472905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02630894173730088</v>
+        <v>0.02579912282231868</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1841473885.586546</v>
+        <v>1557829930.288073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1558370581786707</v>
+        <v>0.1275826684442937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02935105031937561</v>
+        <v>0.03539348341770197</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5409036648.658613</v>
+        <v>5828726724.251321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1424879901912398</v>
+        <v>0.1668946956790555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0429238413520115</v>
+        <v>0.05104059389323849</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>164</v>
+      </c>
+      <c r="J10" t="n">
+        <v>179</v>
+      </c>
+      <c r="K10" t="n">
+        <v>138.911402061288</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2617927243.412993</v>
+        <v>3954847279.099155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1230755744102506</v>
+        <v>0.1660182655545335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0485868466982144</v>
+        <v>0.03764190086995757</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>179</v>
+      </c>
+      <c r="K11" t="n">
+        <v>136.3235281868137</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2287642637.0376</v>
+        <v>2562701701.138718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1675502891841719</v>
+        <v>0.1839339085301591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05030953888194243</v>
+        <v>0.04549967879326299</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4121518032.911415</v>
+        <v>5303598713.233454</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09329219463435535</v>
+        <v>0.07183053833954174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02677375126231101</v>
+        <v>0.02214789955054744</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>179</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2919515876.36408</v>
+        <v>2494536685.986387</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1631341296062732</v>
+        <v>0.1519637878532011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03375578692558009</v>
+        <v>0.02740828469796435</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1820951609.754228</v>
+        <v>1628368080.531441</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1088662569423728</v>
+        <v>0.0675284102719321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03097023502290325</v>
+        <v>0.04228988484842785</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743997898.355808</v>
+        <v>2069726442.831923</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08776912391749632</v>
+        <v>0.07816276355708388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03576820070769662</v>
+        <v>0.04102332590794715</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4660007948.748567</v>
+        <v>5009602285.620149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1414926866244954</v>
+        <v>0.1162764219981543</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04446750857526424</v>
+        <v>0.04493864747417437</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>86</v>
+      </c>
+      <c r="J17" t="n">
+        <v>178</v>
+      </c>
+      <c r="K17" t="n">
+        <v>115.6634193575686</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3085530545.553609</v>
+        <v>2623258850.09237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118132099409043</v>
+        <v>0.1170628560564807</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02397047027399274</v>
+        <v>0.02202664786520972</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>943229884.3163725</v>
+        <v>990173600.8272703</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1302908923391247</v>
+        <v>0.1714056288825113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01945155381987415</v>
+        <v>0.02241877126416721</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1694710827.917621</v>
+        <v>2614615854.360121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329197745016898</v>
+        <v>0.1002553329745652</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02579968244750632</v>
+        <v>0.02489602757867355</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2702629098.718969</v>
+        <v>2399431273.230242</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09170779748702612</v>
+        <v>0.0885756869339816</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03621793831643685</v>
+        <v>0.03470262874440044</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2455996016.198598</v>
+        <v>3155000058.870429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1262419947698857</v>
+        <v>0.1119408778002256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04436920176427473</v>
+        <v>0.03767679430906467</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
+        <v>177</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111980111.208542</v>
+        <v>1431648693.941301</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1256492334365728</v>
+        <v>0.1677463888048587</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05396738161574564</v>
+        <v>0.04436983017088504</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2608128657.100044</v>
+        <v>3559315958.725523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1196383549869813</v>
+        <v>0.1463812505937787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02814252546017</v>
+        <v>0.02597334807546393</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>54</v>
+      </c>
+      <c r="J24" t="n">
+        <v>179</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1460103527.251482</v>
+        <v>1046437535.233244</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1079519157314046</v>
+        <v>0.1084813205359788</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0269315488194192</v>
+        <v>0.02800143801241555</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1071521801.387051</v>
+        <v>1146006626.251842</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09574258176966363</v>
+        <v>0.08166077794771219</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03769019516105963</v>
+        <v>0.03495138645487612</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4437215651.104996</v>
+        <v>3397591296.055857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1191043035942253</v>
+        <v>0.1221672692112737</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02547566195941956</v>
+        <v>0.02410299852689641</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>71</v>
+      </c>
+      <c r="J27" t="n">
+        <v>176</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3019311599.285043</v>
+        <v>3463885402.110779</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0991857149178524</v>
+        <v>0.1179174657163559</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03986027911711321</v>
+        <v>0.04567747245327175</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>179</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3872241632.084318</v>
+        <v>4384739010.433679</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1202875783182243</v>
+        <v>0.1043903442224354</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02842746635323021</v>
+        <v>0.04193524102269402</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>168</v>
+      </c>
+      <c r="J29" t="n">
+        <v>179</v>
+      </c>
+      <c r="K29" t="n">
+        <v>146.0875669185111</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2370549905.808249</v>
+        <v>1476988411.497612</v>
       </c>
       <c r="F30" t="n">
-        <v>0.115066223017977</v>
+        <v>0.09943496141647104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03579558515654991</v>
+        <v>0.03719772885524741</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124327763.940898</v>
+        <v>1450327364.913548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08180814801605836</v>
+        <v>0.07243988682981128</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04845869969974993</v>
+        <v>0.03874713213354032</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1785878627.843366</v>
+        <v>1688946929.293664</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07312748825532168</v>
+        <v>0.07864480127255141</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03420366715548093</v>
+        <v>0.03591020503046351</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2844959504.681013</v>
+        <v>1984512993.648942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.138642011012639</v>
+        <v>0.1750419259187074</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0536392321304259</v>
+        <v>0.04372752285450348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1167144481.602266</v>
+        <v>1077991419.884245</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08733379980385775</v>
+        <v>0.09265986551825622</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02565843130800585</v>
+        <v>0.02500042673262663</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1025823384.121411</v>
+        <v>1195042867.288913</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0884133594945524</v>
+        <v>0.07694897063882357</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03449921322670298</v>
+        <v>0.04426250401338887</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3060314561.458714</v>
+        <v>3160924373.279674</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1502036241469287</v>
+        <v>0.1710086801097996</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02687610401469379</v>
+        <v>0.01865491698026417</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2461018457.914154</v>
+        <v>2884560420.487009</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09774860975090986</v>
+        <v>0.09248038706671212</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04077364782978903</v>
+        <v>0.03121177040776617</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1798594344.226218</v>
+        <v>1864051674.410029</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1145375381167089</v>
+        <v>0.1167211402689814</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0267837131387353</v>
+        <v>0.03599437169603013</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1797788606.561797</v>
+        <v>1887483156.901224</v>
       </c>
       <c r="F39" t="n">
-        <v>0.187120947773241</v>
+        <v>0.134937707536817</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02032164675753926</v>
+        <v>0.0214171624206451</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1440579696.571149</v>
+        <v>1504800019.92063</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1045659138414277</v>
+        <v>0.1456256997361827</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05611611715735206</v>
+        <v>0.05605906960869098</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1957358685.820819</v>
+        <v>2658460465.329293</v>
       </c>
       <c r="F41" t="n">
-        <v>0.114248329017306</v>
+        <v>0.1659236356193494</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03331572274826964</v>
+        <v>0.03540101641980224</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3886668061.480446</v>
+        <v>4340085683.411963</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1171050088301571</v>
+        <v>0.1222454802456695</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04254553624333739</v>
+        <v>0.03156785335364606</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>68</v>
+      </c>
+      <c r="J42" t="n">
+        <v>179</v>
+      </c>
+      <c r="K42" t="n">
+        <v>130.3117466639198</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2907358327.099275</v>
+        <v>2440390511.894104</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1391483765312922</v>
+        <v>0.1961258239200732</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0183938771165361</v>
+        <v>0.0240077381428257</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2200490158.882265</v>
+        <v>1750087767.544162</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09358204900975205</v>
+        <v>0.07364540194307713</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02915297503342738</v>
+        <v>0.02509501079844875</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2504355423.717892</v>
+        <v>1682344195.898174</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1308747618115245</v>
+        <v>0.1759942821062241</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03596579957723008</v>
+        <v>0.03590554284390351</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3447761599.904724</v>
+        <v>5543369210.574962</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740101173881329</v>
+        <v>0.1707204631999819</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03801005283941125</v>
+        <v>0.05768417576524805</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>101</v>
+      </c>
+      <c r="J46" t="n">
+        <v>179</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3997224581.394065</v>
+        <v>3891359770.257977</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1707720895703333</v>
+        <v>0.1308630486864554</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05096261888298229</v>
+        <v>0.05224331314060011</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>80</v>
+      </c>
+      <c r="J47" t="n">
+        <v>178</v>
+      </c>
+      <c r="K47" t="n">
+        <v>100.8862452008762</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4320974210.031198</v>
+        <v>3028198277.816174</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021304454493434</v>
+        <v>0.07482221669067056</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0266725386822098</v>
+        <v>0.03612628336361377</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>82</v>
+      </c>
+      <c r="J48" t="n">
+        <v>177</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1725199659.106204</v>
+        <v>1548225884.522596</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1876768757756963</v>
+        <v>0.145890489099704</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03308988832198945</v>
+        <v>0.04090207269248244</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2564007811.823312</v>
+        <v>3075212821.096979</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1201529303691957</v>
+        <v>0.1567601943833497</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05093075933377098</v>
+        <v>0.03646208176009886</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1244303448.141056</v>
+        <v>1102622529.452523</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1900974124165863</v>
+        <v>0.1603978879071827</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04685201214806438</v>
+        <v>0.04786919816286563</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3465408859.802471</v>
+        <v>5098152103.98698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190397756247309</v>
+        <v>0.1389952578634653</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04079219879152659</v>
+        <v>0.05052895756985731</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>127</v>
+      </c>
+      <c r="J52" t="n">
+        <v>178</v>
+      </c>
+      <c r="K52" t="n">
+        <v>127.8761815160556</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3146253323.68608</v>
+        <v>2534096770.02926</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1784527123732629</v>
+        <v>0.1774429655151972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02824548146366384</v>
+        <v>0.03559948600704028</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48.72754048662989</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4484186316.879372</v>
+        <v>4238331077.72931</v>
       </c>
       <c r="F54" t="n">
-        <v>0.169625775775931</v>
+        <v>0.130782742808079</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04702952938816243</v>
+        <v>0.03960118828981805</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>90</v>
+      </c>
+      <c r="J54" t="n">
+        <v>179</v>
+      </c>
+      <c r="K54" t="n">
+        <v>131.8941401404381</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4306622351.836917</v>
+        <v>3435367381.899659</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2043592435083701</v>
+        <v>0.1612056152760628</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02518328440355524</v>
+        <v>0.02118299175311274</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>81</v>
+      </c>
+      <c r="J55" t="n">
+        <v>178</v>
+      </c>
+      <c r="K55" t="n">
+        <v>92.16730466049131</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1500708631.206582</v>
+        <v>1756002584.684683</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1012584346640771</v>
+        <v>0.1266667203157979</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03654338796309551</v>
+        <v>0.03954764461274717</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3892696741.830652</v>
+        <v>3715183695.572248</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1178412557557988</v>
+        <v>0.1620604664666682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02193391059651812</v>
+        <v>0.02312636787262964</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>72</v>
+      </c>
+      <c r="J57" t="n">
+        <v>179</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1352028292.676784</v>
+        <v>1199370677.006962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160789962355109</v>
+        <v>0.1650794347750889</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02395432276086326</v>
+        <v>0.035092274090775</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4441448686.038059</v>
+        <v>4066409860.230142</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231204165823213</v>
+        <v>0.119129051510317</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03513615789043401</v>
+        <v>0.04103964495195224</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>86</v>
+      </c>
+      <c r="J59" t="n">
+        <v>178</v>
+      </c>
+      <c r="K59" t="n">
+        <v>118.4274275993629</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3190865890.534348</v>
+        <v>2550177664.998619</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1381008847057811</v>
+        <v>0.1363287119192249</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03317466977143206</v>
+        <v>0.02666127777352847</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2073733480.919651</v>
+        <v>2838637533.767696</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1754010255782572</v>
+        <v>0.1790303516450643</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0203484895651647</v>
+        <v>0.02132824250287414</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1873239965.815758</v>
+        <v>1792511261.9449</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1850541169767063</v>
+        <v>0.1209173063090746</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03923076136013547</v>
+        <v>0.03813718559985475</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4422587077.537767</v>
+        <v>3541955904.055059</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1032606132368039</v>
+        <v>0.07036955716750572</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03621498757157427</v>
+        <v>0.03368173557397693</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>88</v>
+      </c>
+      <c r="J63" t="n">
+        <v>178</v>
+      </c>
+      <c r="K63" t="n">
+        <v>95.62097426876569</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3909472500.352931</v>
+        <v>3395690188.483681</v>
       </c>
       <c r="F64" t="n">
-        <v>0.143282754778957</v>
+        <v>0.1458774655260311</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02211463518344101</v>
+        <v>0.03080473778184164</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>88</v>
+      </c>
+      <c r="J64" t="n">
+        <v>177</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5327009775.821359</v>
+        <v>5722541115.739521</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667124873313017</v>
+        <v>0.1096944287614173</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02793782614650495</v>
+        <v>0.02218170146745658</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>145</v>
+      </c>
+      <c r="J65" t="n">
+        <v>179</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4378182413.17613</v>
+        <v>5073958343.675024</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1486569984238897</v>
+        <v>0.1550179033787426</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04677824517664776</v>
+        <v>0.0329463913333826</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>88</v>
+      </c>
+      <c r="J66" t="n">
+        <v>178</v>
+      </c>
+      <c r="K66" t="n">
+        <v>117.7857195473379</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2432633848.623011</v>
+        <v>2431165184.205076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09944331303693234</v>
+        <v>0.06514300495430371</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03544052231932636</v>
+        <v>0.04464085377811175</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3763137746.620091</v>
+        <v>4471341412.412198</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1281008636852775</v>
+        <v>0.1574324508461554</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04790151858690794</v>
+        <v>0.03253860552487195</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>90</v>
+      </c>
+      <c r="J68" t="n">
+        <v>178</v>
+      </c>
+      <c r="K68" t="n">
+        <v>121.816870858009</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1778105618.648333</v>
+        <v>1665755704.414114</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1775507505161867</v>
+        <v>0.1775446877454797</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03728297778871948</v>
+        <v>0.04219199124389739</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3301717874.571252</v>
+        <v>2759710133.931813</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09702539478728057</v>
+        <v>0.09651023579429427</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03453566954592511</v>
+        <v>0.04074162864355857</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4608240711.571153</v>
+        <v>5135223404.171528</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1853953516202908</v>
+        <v>0.1542144369312738</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02412337485812884</v>
+        <v>0.03101357427331438</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>141</v>
+      </c>
+      <c r="J71" t="n">
+        <v>178</v>
+      </c>
+      <c r="K71" t="n">
+        <v>129.1594226253955</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2035306418.342691</v>
+        <v>1577036724.867935</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0920129650942282</v>
+        <v>0.09082325522694625</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03488136763605336</v>
+        <v>0.044452112985718</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2241313132.49663</v>
+        <v>3333142485.429917</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09749537852221229</v>
+        <v>0.09534898538224547</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03264973348868938</v>
+        <v>0.05160515764296026</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3828551383.489519</v>
+        <v>3529209196.204768</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1479357006814443</v>
+        <v>0.1606992554044149</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02662351546361248</v>
+        <v>0.02932887066775349</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="n">
+        <v>104.2879511433762</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1758638932.694876</v>
+        <v>2033957395.012311</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1279357509181694</v>
+        <v>0.1203217071968065</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03001931203285367</v>
+        <v>0.02406845721956997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136251471.13407</v>
+        <v>4246038826.118412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028422927988397</v>
+        <v>0.1207457128438875</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0278416089409686</v>
+        <v>0.03337231596526945</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>81</v>
+      </c>
+      <c r="J76" t="n">
+        <v>179</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2176363102.544097</v>
+        <v>1500439422.972978</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1615725175990818</v>
+        <v>0.1428167628414485</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02876810917209002</v>
+        <v>0.02821516625668685</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3634428211.846796</v>
+        <v>3323038835.975334</v>
       </c>
       <c r="F78" t="n">
-        <v>0.122165439517023</v>
+        <v>0.1103849725919342</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0485321250720932</v>
+        <v>0.05319674219931515</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>91</v>
+      </c>
+      <c r="J78" t="n">
+        <v>178</v>
+      </c>
+      <c r="K78" t="n">
+        <v>92.4148806823449</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1712754477.945458</v>
+        <v>1807132108.744059</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1164468474469827</v>
+        <v>0.1544209041625175</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02460612186298964</v>
+        <v>0.02739479810853964</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5340023660.524536</v>
+        <v>4019122336.897712</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07945001414652107</v>
+        <v>0.06730767076980337</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03645535548906285</v>
+        <v>0.02741807794083469</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>87</v>
+      </c>
+      <c r="J80" t="n">
+        <v>179</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3986196586.332289</v>
+        <v>3398456957.527748</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08978402713872709</v>
+        <v>0.1036452119548652</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03010092215150213</v>
+        <v>0.02050266574787836</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>82</v>
+      </c>
+      <c r="J81" t="n">
+        <v>179</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3568828535.137351</v>
+        <v>3588704646.080096</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2166992338191855</v>
+        <v>0.1850948724110393</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01905535629038655</v>
+        <v>0.02681814529550626</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>133</v>
+      </c>
+      <c r="J82" t="n">
+        <v>178</v>
+      </c>
+      <c r="K82" t="n">
+        <v>112.3437840124414</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1940024350.52482</v>
+        <v>1569362823.599992</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1341686580120554</v>
+        <v>0.1048363389092442</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02976567059917401</v>
+        <v>0.037070624884276</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2507035137.004361</v>
+        <v>1686023244.157762</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08021785417829633</v>
+        <v>0.1003288998113387</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03361072527378271</v>
+        <v>0.04913819333550078</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2596082347.690105</v>
+        <v>3166087561.028145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1525651071222401</v>
+        <v>0.1198072945431682</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03699078082759621</v>
+        <v>0.03535455099981342</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2076420197.175611</v>
+        <v>2704670253.137143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1250409005686618</v>
+        <v>0.1357805329371452</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01689532605331234</v>
+        <v>0.02691312835343333</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1149024204.502551</v>
+        <v>1314420046.973665</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1381142838625267</v>
+        <v>0.1232293946755737</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03064072190639676</v>
+        <v>0.0441269782904767</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3543,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2851544773.817647</v>
+        <v>2796936408.943129</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1421720154060386</v>
+        <v>0.1544837205037378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03650064176262208</v>
+        <v>0.034421199241072</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>178</v>
+      </c>
+      <c r="K88" t="n">
+        <v>68.18112455767162</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3311837637.325679</v>
+        <v>2537117793.23813</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1160214261043687</v>
+        <v>0.140107068352122</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02728601556750844</v>
+        <v>0.02945242890084817</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2105236482.982895</v>
+        <v>1982406577.809916</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09638247733111674</v>
+        <v>0.1029949448506448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04129916460054791</v>
+        <v>0.04548375133764813</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1430392389.242392</v>
+        <v>1803672451.446611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567133626583379</v>
+        <v>0.1341475563948871</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05010469704589715</v>
+        <v>0.05753196946298534</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2148991743.847592</v>
+        <v>2663528069.602978</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09650085415339343</v>
+        <v>0.06897429953894037</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03147408071432577</v>
+        <v>0.03184665166505552</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3888231937.691461</v>
+        <v>3742009763.261467</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09584505760775713</v>
+        <v>0.1362651938645817</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04850896095741032</v>
+        <v>0.04756902575119693</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>80</v>
+      </c>
+      <c r="J93" t="n">
+        <v>179</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1719778330.642901</v>
+        <v>1673708326.83652</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1513597451152262</v>
+        <v>0.1272204405686864</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02692018881703522</v>
+        <v>0.03076342192687956</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3065586870.664771</v>
+        <v>2785367445.031309</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1132683058266914</v>
+        <v>0.09141965435062961</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04858787530051714</v>
+        <v>0.04511743514616883</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1676444890.105672</v>
+        <v>1938394334.290998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1110302809813675</v>
+        <v>0.1291136529735692</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03228357527932214</v>
+        <v>0.04000735991426443</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3391164186.380138</v>
+        <v>5259860268.702141</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1289083561188547</v>
+        <v>0.1078070476681708</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02838068290129093</v>
+        <v>0.02099988206234766</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>86</v>
+      </c>
+      <c r="J97" t="n">
+        <v>179</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3316249944.221297</v>
+        <v>3408543487.086949</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09655354529718287</v>
+        <v>0.1150121098849033</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02103681801371065</v>
+        <v>0.02672670103208764</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>43</v>
+      </c>
+      <c r="J98" t="n">
+        <v>179</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2713629446.732934</v>
+        <v>2612271483.573142</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1270932974748508</v>
+        <v>0.1285520158393119</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02213978349416034</v>
+        <v>0.0294490991327555</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3695150170.105176</v>
+        <v>4754781918.831164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1303511412761828</v>
+        <v>0.1763391866960048</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02115797651161542</v>
+        <v>0.02652055439682508</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>74</v>
+      </c>
+      <c r="J100" t="n">
+        <v>179</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3044985535.941477</v>
+        <v>3401168259.493717</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1489273916458615</v>
+        <v>0.2203733399918573</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03711559667310432</v>
+        <v>0.04927217465916095</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
